--- a/M2.xlsx
+++ b/M2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\own_prog\github\kaudet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2C87DC-C632-4B9C-81E1-3B3AD942F45D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C33E884-1DDE-4B1E-B890-469CBDB98DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1200" windowWidth="20604" windowHeight="13200" tabRatio="880" activeTab="1" xr2:uid="{CFC6D258-5D3C-46F8-BFEC-F3C271445404}"/>
+    <workbookView xWindow="1248" yWindow="516" windowWidth="20880" windowHeight="12012" tabRatio="880" activeTab="1" xr2:uid="{CFC6D258-5D3C-46F8-BFEC-F3C271445404}"/>
   </bookViews>
   <sheets>
     <sheet name="M2 2025-2027" sheetId="10" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
   <si>
     <t>päivä</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>eräpisteet Kaje</t>
+  </si>
+  <si>
+    <t>29-27,22-25,19-25,19-25</t>
   </si>
 </sst>
 </file>
@@ -647,7 +650,7 @@
       </c>
       <c r="C2" s="10">
         <f>'M2 2025-2026'!R2</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" s="10">
         <f>'M2 2025-2026'!O2</f>
@@ -656,7 +659,7 @@
       <c r="E2" s="10"/>
       <c r="F2" s="10">
         <f>'M2 2025-2026'!Q2</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2" s="10">
         <f>'M2 2025-2026'!O3</f>
@@ -664,15 +667,15 @@
       </c>
       <c r="H2" s="10">
         <f>'M2 2025-2026'!Q3</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I2" s="10">
         <f>'M2 2025-2026'!O4</f>
-        <v>145</v>
+        <v>234</v>
       </c>
       <c r="J2" s="10">
         <f>'M2 2025-2026'!Q4</f>
-        <v>158</v>
+        <v>260</v>
       </c>
       <c r="K2" s="10"/>
     </row>
@@ -696,7 +699,7 @@
       </c>
       <c r="C4" s="11">
         <f t="shared" ref="C4:J4" si="0">SUM(C2:C3)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" s="11">
         <f t="shared" si="0"/>
@@ -708,7 +711,7 @@
       </c>
       <c r="F4" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G4" s="12">
         <f t="shared" si="0"/>
@@ -716,20 +719,20 @@
       </c>
       <c r="H4" s="12">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I4" s="12">
         <f t="shared" si="0"/>
-        <v>145</v>
+        <v>234</v>
       </c>
       <c r="J4" s="12">
         <f t="shared" si="0"/>
-        <v>158</v>
+        <v>260</v>
       </c>
       <c r="K4" s="10"/>
       <c r="M4">
         <f>'M2 2025-2026'!Q2</f>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -743,7 +746,7 @@
   <dimension ref="A1:S29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -845,11 +848,11 @@
       </c>
       <c r="Q2" s="10">
         <f>SUM(J2:J29)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R2" s="10">
         <f>SUM(O2:Q2)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
@@ -894,14 +897,14 @@
       <c r="P3" s="8"/>
       <c r="Q3" s="8">
         <f>SUM(J2:J29)*3+SUM(I2:I29)*2+SUM(H2:H29)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="R3" s="8">
         <f>SUM(O3:Q3)</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="19">
         <v>45963</v>
       </c>
@@ -914,30 +917,40 @@
       <c r="D4" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="20"/>
+      <c r="E4" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>33</v>
+      </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
+      <c r="J4" s="10">
+        <v>1</v>
+      </c>
+      <c r="K4" s="10">
+        <v>89</v>
+      </c>
+      <c r="L4" s="10">
+        <v>102</v>
+      </c>
       <c r="M4" s="10"/>
       <c r="N4" s="11" t="s">
         <v>9</v>
       </c>
       <c r="O4" s="10">
         <f>SUM(K2:K30)</f>
-        <v>145</v>
+        <v>234</v>
       </c>
       <c r="P4" s="10"/>
       <c r="Q4" s="10">
         <f>SUM(L2:L30)</f>
-        <v>158</v>
+        <v>260</v>
       </c>
       <c r="R4" s="10">
         <f>SUM(O4:Q4)</f>
-        <v>303</v>
+        <v>494</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">

--- a/M2.xlsx
+++ b/M2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\own_prog\github\kaudet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C33E884-1DDE-4B1E-B890-469CBDB98DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42040D23-972A-4B55-B7B2-578949957CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1248" yWindow="516" windowWidth="20880" windowHeight="12012" tabRatio="880" activeTab="1" xr2:uid="{CFC6D258-5D3C-46F8-BFEC-F3C271445404}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="36">
   <si>
     <t>päivä</t>
   </si>
@@ -139,6 +139,12 @@
   </si>
   <si>
     <t>29-27,22-25,19-25,19-25</t>
+  </si>
+  <si>
+    <t>3-2</t>
+  </si>
+  <si>
+    <t>21-25,25-20,22-25,27-25,16-14</t>
   </si>
 </sst>
 </file>
@@ -663,19 +669,19 @@
       </c>
       <c r="G2" s="10">
         <f>'M2 2025-2026'!O3</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H2" s="10">
         <f>'M2 2025-2026'!Q3</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I2" s="10">
         <f>'M2 2025-2026'!O4</f>
-        <v>234</v>
+        <v>345</v>
       </c>
       <c r="J2" s="10">
         <f>'M2 2025-2026'!Q4</f>
-        <v>260</v>
+        <v>369</v>
       </c>
       <c r="K2" s="10"/>
     </row>
@@ -715,19 +721,19 @@
       </c>
       <c r="G4" s="12">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H4" s="12">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I4" s="12">
         <f t="shared" si="0"/>
-        <v>234</v>
+        <v>345</v>
       </c>
       <c r="J4" s="12">
         <f t="shared" si="0"/>
-        <v>260</v>
+        <v>369</v>
       </c>
       <c r="K4" s="10"/>
       <c r="M4">
@@ -746,7 +752,7 @@
   <dimension ref="A1:S29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -892,16 +898,16 @@
       </c>
       <c r="O3" s="8">
         <f>SUM(G2:G29)*3+SUM(H2:H29)*2+SUM(I2:I29)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P3" s="8"/>
       <c r="Q3" s="8">
         <f>SUM(J2:J29)*3+SUM(I2:I29)*2+SUM(H2:H29)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R3" s="8">
         <f>SUM(O3:Q3)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
@@ -941,19 +947,19 @@
       </c>
       <c r="O4" s="10">
         <f>SUM(K2:K30)</f>
-        <v>234</v>
+        <v>345</v>
       </c>
       <c r="P4" s="10"/>
       <c r="Q4" s="10">
         <f>SUM(L2:L30)</f>
-        <v>260</v>
+        <v>369</v>
       </c>
       <c r="R4" s="10">
         <f>SUM(O4:Q4)</f>
-        <v>494</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="13">
         <v>45969</v>
       </c>
@@ -966,14 +972,24 @@
       <c r="D5" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="16"/>
+      <c r="E5" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="G5" s="16"/>
-      <c r="H5" s="8"/>
+      <c r="H5" s="8">
+        <v>1</v>
+      </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
+      <c r="K5" s="8">
+        <v>111</v>
+      </c>
+      <c r="L5" s="8">
+        <v>109</v>
+      </c>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
       <c r="O5" s="8"/>

--- a/M2.xlsx
+++ b/M2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\own_prog\github\kaudet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42040D23-972A-4B55-B7B2-578949957CD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140B0366-C2F7-4779-8E69-2C8E0F7E9898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1248" yWindow="516" windowWidth="20880" windowHeight="12012" tabRatio="880" activeTab="1" xr2:uid="{CFC6D258-5D3C-46F8-BFEC-F3C271445404}"/>
+    <workbookView xWindow="1092" yWindow="948" windowWidth="20880" windowHeight="12012" tabRatio="880" activeTab="1" xr2:uid="{CFC6D258-5D3C-46F8-BFEC-F3C271445404}"/>
   </bookViews>
   <sheets>
     <sheet name="M2 2025-2027" sheetId="10" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
   <si>
     <t>päivä</t>
   </si>
@@ -145,6 +145,12 @@
   </si>
   <si>
     <t>21-25,25-20,22-25,27-25,16-14</t>
+  </si>
+  <si>
+    <t>0-3</t>
+  </si>
+  <si>
+    <t>20-25-20-25,13-25</t>
   </si>
 </sst>
 </file>
@@ -656,7 +662,7 @@
       </c>
       <c r="C2" s="10">
         <f>'M2 2025-2026'!R2</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="10">
         <f>'M2 2025-2026'!O2</f>
@@ -665,7 +671,7 @@
       <c r="E2" s="10"/>
       <c r="F2" s="10">
         <f>'M2 2025-2026'!Q2</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G2" s="10">
         <f>'M2 2025-2026'!O3</f>
@@ -673,15 +679,15 @@
       </c>
       <c r="H2" s="10">
         <f>'M2 2025-2026'!Q3</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I2" s="10">
         <f>'M2 2025-2026'!O4</f>
-        <v>345</v>
+        <v>398</v>
       </c>
       <c r="J2" s="10">
         <f>'M2 2025-2026'!Q4</f>
-        <v>369</v>
+        <v>444</v>
       </c>
       <c r="K2" s="10"/>
     </row>
@@ -705,7 +711,7 @@
       </c>
       <c r="C4" s="11">
         <f t="shared" ref="C4:J4" si="0">SUM(C2:C3)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" s="11">
         <f t="shared" si="0"/>
@@ -717,7 +723,7 @@
       </c>
       <c r="F4" s="11">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4" s="12">
         <f t="shared" si="0"/>
@@ -725,20 +731,20 @@
       </c>
       <c r="H4" s="12">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I4" s="12">
         <f t="shared" si="0"/>
-        <v>345</v>
+        <v>398</v>
       </c>
       <c r="J4" s="12">
         <f t="shared" si="0"/>
-        <v>369</v>
+        <v>444</v>
       </c>
       <c r="K4" s="10"/>
       <c r="M4">
         <f>'M2 2025-2026'!Q2</f>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -752,7 +758,7 @@
   <dimension ref="A1:S29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -854,11 +860,11 @@
       </c>
       <c r="Q2" s="10">
         <f>SUM(J2:J29)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R2" s="10">
         <f>SUM(O2:Q2)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
@@ -903,11 +909,11 @@
       <c r="P3" s="8"/>
       <c r="Q3" s="8">
         <f>SUM(J2:J29)*3+SUM(I2:I29)*2+SUM(H2:H29)</f>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="R3" s="8">
         <f>SUM(O3:Q3)</f>
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
@@ -947,16 +953,16 @@
       </c>
       <c r="O4" s="10">
         <f>SUM(K2:K30)</f>
-        <v>345</v>
+        <v>398</v>
       </c>
       <c r="P4" s="10"/>
       <c r="Q4" s="10">
         <f>SUM(L2:L30)</f>
-        <v>369</v>
+        <v>444</v>
       </c>
       <c r="R4" s="10">
         <f>SUM(O4:Q4)</f>
-        <v>714</v>
+        <v>842</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
@@ -997,7 +1003,7 @@
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="19">
         <v>45976</v>
       </c>
@@ -1010,14 +1016,24 @@
       <c r="D6" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="22"/>
+      <c r="E6" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>37</v>
+      </c>
       <c r="G6" s="22"/>
       <c r="H6" s="10"/>
       <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
+      <c r="J6" s="10">
+        <v>1</v>
+      </c>
+      <c r="K6" s="10">
+        <v>53</v>
+      </c>
+      <c r="L6" s="10">
+        <v>75</v>
+      </c>
       <c r="M6" s="10"/>
       <c r="N6" s="10"/>
       <c r="O6" s="10"/>

--- a/M2.xlsx
+++ b/M2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\own_prog\github\kaudet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140B0366-C2F7-4779-8E69-2C8E0F7E9898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB14874E-BA6F-47FD-A30F-B9B08B430923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1092" yWindow="948" windowWidth="20880" windowHeight="12012" tabRatio="880" activeTab="1" xr2:uid="{CFC6D258-5D3C-46F8-BFEC-F3C271445404}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="21876" windowHeight="12012" tabRatio="880" activeTab="1" xr2:uid="{CFC6D258-5D3C-46F8-BFEC-F3C271445404}"/>
   </bookViews>
   <sheets>
     <sheet name="M2 2025-2027" sheetId="10" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="40">
   <si>
     <t>päivä</t>
   </si>
@@ -151,6 +151,12 @@
   </si>
   <si>
     <t>20-25-20-25,13-25</t>
+  </si>
+  <si>
+    <t>3-1</t>
+  </si>
+  <si>
+    <t>25-19,25-16,23-25,25-22</t>
   </si>
 </sst>
 </file>
@@ -662,11 +668,11 @@
       </c>
       <c r="C2" s="10">
         <f>'M2 2025-2026'!R2</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="10">
         <f>'M2 2025-2026'!O2</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10">
@@ -675,7 +681,7 @@
       </c>
       <c r="G2" s="10">
         <f>'M2 2025-2026'!O3</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H2" s="10">
         <f>'M2 2025-2026'!Q3</f>
@@ -683,11 +689,11 @@
       </c>
       <c r="I2" s="10">
         <f>'M2 2025-2026'!O4</f>
-        <v>398</v>
+        <v>496</v>
       </c>
       <c r="J2" s="10">
         <f>'M2 2025-2026'!Q4</f>
-        <v>444</v>
+        <v>526</v>
       </c>
       <c r="K2" s="10"/>
     </row>
@@ -711,11 +717,11 @@
       </c>
       <c r="C4" s="11">
         <f t="shared" ref="C4:J4" si="0">SUM(C2:C3)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" s="11">
         <f t="shared" si="0"/>
@@ -727,7 +733,7 @@
       </c>
       <c r="G4" s="12">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H4" s="12">
         <f t="shared" si="0"/>
@@ -735,11 +741,11 @@
       </c>
       <c r="I4" s="12">
         <f t="shared" si="0"/>
-        <v>398</v>
+        <v>496</v>
       </c>
       <c r="J4" s="12">
         <f t="shared" si="0"/>
-        <v>444</v>
+        <v>526</v>
       </c>
       <c r="K4" s="10"/>
       <c r="M4">
@@ -758,7 +764,7 @@
   <dimension ref="A1:S29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -852,7 +858,7 @@
       </c>
       <c r="O2" s="10">
         <f>SUM(G2:G29)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P2" s="10">
         <f>SUM(I2:I29)</f>
@@ -864,7 +870,7 @@
       </c>
       <c r="R2" s="10">
         <f>SUM(O2:Q2)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
@@ -904,7 +910,7 @@
       </c>
       <c r="O3" s="8">
         <f>SUM(G2:G29)*3+SUM(H2:H29)*2+SUM(I2:I29)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P3" s="8"/>
       <c r="Q3" s="8">
@@ -913,7 +919,7 @@
       </c>
       <c r="R3" s="8">
         <f>SUM(O3:Q3)</f>
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
@@ -953,16 +959,16 @@
       </c>
       <c r="O4" s="10">
         <f>SUM(K2:K30)</f>
-        <v>398</v>
+        <v>496</v>
       </c>
       <c r="P4" s="10"/>
       <c r="Q4" s="10">
         <f>SUM(L2:L30)</f>
-        <v>444</v>
+        <v>526</v>
       </c>
       <c r="R4" s="10">
         <f>SUM(O4:Q4)</f>
-        <v>842</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
@@ -1041,7 +1047,7 @@
       <c r="Q6" s="10"/>
       <c r="R6" s="10"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="13">
         <v>45991</v>
       </c>
@@ -1054,14 +1060,24 @@
       <c r="D7" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
+      <c r="E7" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="16">
+        <v>1</v>
+      </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
+      <c r="K7" s="8">
+        <v>98</v>
+      </c>
+      <c r="L7" s="8">
+        <v>82</v>
+      </c>
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>

--- a/M2.xlsx
+++ b/M2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\own_prog\github\kaudet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB14874E-BA6F-47FD-A30F-B9B08B430923}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDB0567-58F2-4BB6-808D-888B489FBC9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="21876" windowHeight="12012" tabRatio="880" activeTab="1" xr2:uid="{CFC6D258-5D3C-46F8-BFEC-F3C271445404}"/>
+    <workbookView xWindow="0" yWindow="360" windowWidth="21876" windowHeight="12012" tabRatio="880" activeTab="1" xr2:uid="{CFC6D258-5D3C-46F8-BFEC-F3C271445404}"/>
   </bookViews>
   <sheets>
     <sheet name="M2 2025-2027" sheetId="10" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
   <si>
     <t>päivä</t>
   </si>
@@ -157,6 +157,9 @@
   </si>
   <si>
     <t>25-19,25-16,23-25,25-22</t>
+  </si>
+  <si>
+    <t>18-25,25-27,18-25</t>
   </si>
 </sst>
 </file>
@@ -668,7 +671,7 @@
       </c>
       <c r="C2" s="10">
         <f>'M2 2025-2026'!R2</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="10">
         <f>'M2 2025-2026'!O2</f>
@@ -677,7 +680,7 @@
       <c r="E2" s="10"/>
       <c r="F2" s="10">
         <f>'M2 2025-2026'!Q2</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2" s="10">
         <f>'M2 2025-2026'!O3</f>
@@ -685,15 +688,15 @@
       </c>
       <c r="H2" s="10">
         <f>'M2 2025-2026'!Q3</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I2" s="10">
         <f>'M2 2025-2026'!O4</f>
-        <v>496</v>
+        <v>557</v>
       </c>
       <c r="J2" s="10">
         <f>'M2 2025-2026'!Q4</f>
-        <v>526</v>
+        <v>603</v>
       </c>
       <c r="K2" s="10"/>
     </row>
@@ -717,7 +720,7 @@
       </c>
       <c r="C4" s="11">
         <f t="shared" ref="C4:J4" si="0">SUM(C2:C3)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4" s="11">
         <f t="shared" si="0"/>
@@ -729,7 +732,7 @@
       </c>
       <c r="F4" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G4" s="12">
         <f t="shared" si="0"/>
@@ -737,20 +740,20 @@
       </c>
       <c r="H4" s="12">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I4" s="12">
         <f t="shared" si="0"/>
-        <v>496</v>
+        <v>557</v>
       </c>
       <c r="J4" s="12">
         <f t="shared" si="0"/>
-        <v>526</v>
+        <v>603</v>
       </c>
       <c r="K4" s="10"/>
       <c r="M4">
         <f>'M2 2025-2026'!Q2</f>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -764,7 +767,7 @@
   <dimension ref="A1:S29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -866,11 +869,11 @@
       </c>
       <c r="Q2" s="10">
         <f>SUM(J2:J29)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R2" s="10">
         <f>SUM(O2:Q2)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
@@ -915,11 +918,11 @@
       <c r="P3" s="8"/>
       <c r="Q3" s="8">
         <f>SUM(J2:J29)*3+SUM(I2:I29)*2+SUM(H2:H29)</f>
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="R3" s="8">
         <f>SUM(O3:Q3)</f>
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
@@ -959,16 +962,16 @@
       </c>
       <c r="O4" s="10">
         <f>SUM(K2:K30)</f>
-        <v>496</v>
+        <v>557</v>
       </c>
       <c r="P4" s="10"/>
       <c r="Q4" s="10">
         <f>SUM(L2:L30)</f>
-        <v>526</v>
+        <v>603</v>
       </c>
       <c r="R4" s="10">
         <f>SUM(O4:Q4)</f>
-        <v>1022</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
@@ -1085,7 +1088,7 @@
       <c r="Q7" s="8"/>
       <c r="R7" s="8"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="19">
         <v>45998</v>
       </c>
@@ -1098,14 +1101,24 @@
       <c r="D8" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="22"/>
+      <c r="E8" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" s="22" t="s">
+        <v>40</v>
+      </c>
       <c r="G8" s="22"/>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
+      <c r="J8" s="10">
+        <v>1</v>
+      </c>
+      <c r="K8" s="10">
+        <v>61</v>
+      </c>
+      <c r="L8" s="10">
+        <v>77</v>
+      </c>
       <c r="M8" s="10"/>
       <c r="N8" s="10"/>
       <c r="O8" s="10"/>

--- a/M2.xlsx
+++ b/M2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\own_prog\github\kaudet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDB0567-58F2-4BB6-808D-888B489FBC9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9434DB-91DA-425F-80A8-3FCDEFA6716A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="360" windowWidth="21876" windowHeight="12012" tabRatio="880" activeTab="1" xr2:uid="{CFC6D258-5D3C-46F8-BFEC-F3C271445404}"/>
+    <workbookView xWindow="1920" yWindow="0" windowWidth="19452" windowHeight="13776" tabRatio="880" activeTab="1" xr2:uid="{CFC6D258-5D3C-46F8-BFEC-F3C271445404}"/>
   </bookViews>
   <sheets>
     <sheet name="M2 2025-2027" sheetId="10" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="48">
   <si>
     <t>päivä</t>
   </si>
@@ -160,6 +160,27 @@
   </si>
   <si>
     <t>18-25,25-27,18-25</t>
+  </si>
+  <si>
+    <t>2-3</t>
+  </si>
+  <si>
+    <t>25-18,25-18,19-25,24-26,12-15</t>
+  </si>
+  <si>
+    <t>KoKa</t>
+  </si>
+  <si>
+    <t>VaLePa</t>
+  </si>
+  <si>
+    <t>PuMa</t>
+  </si>
+  <si>
+    <t>Lempo-Volley</t>
+  </si>
+  <si>
+    <t>TamRy</t>
   </si>
 </sst>
 </file>
@@ -671,32 +692,32 @@
       </c>
       <c r="C2" s="10">
         <f>'M2 2025-2026'!R2</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" s="10">
         <f>'M2 2025-2026'!O2</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10">
         <f>'M2 2025-2026'!Q2</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2" s="10">
         <f>'M2 2025-2026'!O3</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H2" s="10">
         <f>'M2 2025-2026'!Q3</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I2" s="10">
         <f>'M2 2025-2026'!O4</f>
-        <v>557</v>
+        <v>662</v>
       </c>
       <c r="J2" s="10">
         <f>'M2 2025-2026'!Q4</f>
-        <v>603</v>
+        <v>705</v>
       </c>
       <c r="K2" s="10"/>
     </row>
@@ -720,11 +741,11 @@
       </c>
       <c r="C4" s="11">
         <f t="shared" ref="C4:J4" si="0">SUM(C2:C3)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" s="11">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" s="11">
         <f t="shared" si="0"/>
@@ -732,28 +753,28 @@
       </c>
       <c r="F4" s="11">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G4" s="12">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H4" s="12">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="I4" s="12">
         <f t="shared" si="0"/>
-        <v>557</v>
+        <v>662</v>
       </c>
       <c r="J4" s="12">
         <f t="shared" si="0"/>
-        <v>603</v>
+        <v>705</v>
       </c>
       <c r="K4" s="10"/>
       <c r="M4">
         <f>'M2 2025-2026'!Q2</f>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -766,13 +787,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35338555-4C3B-4F48-AD20-7BBDECE7FD0C}">
   <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="C6" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="18" width="10.77734375" customWidth="1"/>
+    <col min="1" max="3" width="10.77734375" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="18" width="10.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
@@ -860,20 +883,17 @@
         <v>8</v>
       </c>
       <c r="O2" s="10">
-        <f>SUM(G2:G29)</f>
-        <v>2</v>
-      </c>
-      <c r="P2" s="10">
-        <f>SUM(I2:I29)</f>
-        <v>0</v>
-      </c>
+        <f>SUM(G2:G25)+SUM(H2:H25)</f>
+        <v>3</v>
+      </c>
+      <c r="P2" s="10"/>
       <c r="Q2" s="10">
-        <f>SUM(J2:J29)</f>
-        <v>4</v>
+        <f>SUM(J2:J25)+SUM(I2:I25)</f>
+        <v>5</v>
       </c>
       <c r="R2" s="10">
         <f>SUM(O2:Q2)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
@@ -913,16 +933,16 @@
       </c>
       <c r="O3" s="8">
         <f>SUM(G2:G29)*3+SUM(H2:H29)*2+SUM(I2:I29)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P3" s="8"/>
       <c r="Q3" s="8">
         <f>SUM(J2:J29)*3+SUM(I2:I29)*2+SUM(H2:H29)</f>
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="R3" s="8">
         <f>SUM(O3:Q3)</f>
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
@@ -962,16 +982,16 @@
       </c>
       <c r="O4" s="10">
         <f>SUM(K2:K30)</f>
-        <v>557</v>
+        <v>662</v>
       </c>
       <c r="P4" s="10"/>
       <c r="Q4" s="10">
         <f>SUM(L2:L30)</f>
-        <v>603</v>
+        <v>705</v>
       </c>
       <c r="R4" s="10">
         <f>SUM(O4:Q4)</f>
-        <v>1160</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
@@ -1126,7 +1146,7 @@
       <c r="Q8" s="10"/>
       <c r="R8" s="10"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A9" s="13">
         <v>46005</v>
       </c>
@@ -1139,14 +1159,24 @@
       <c r="D9" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="16"/>
+      <c r="E9" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
+      <c r="I9" s="8">
+        <v>1</v>
+      </c>
       <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
+      <c r="K9" s="8">
+        <v>105</v>
+      </c>
+      <c r="L9" s="8">
+        <v>102</v>
+      </c>
       <c r="M9" s="8"/>
       <c r="N9" s="8"/>
       <c r="O9" s="8"/>
@@ -1157,8 +1187,12 @@
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="19"/>
       <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
+      <c r="C10" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>43</v>
+      </c>
       <c r="E10" s="21"/>
       <c r="F10" s="22"/>
       <c r="G10" s="22"/>
@@ -1177,8 +1211,12 @@
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="13"/>
       <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
+      <c r="C11" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>44</v>
+      </c>
       <c r="E11" s="15"/>
       <c r="F11" s="16"/>
       <c r="G11" s="8"/>
@@ -1197,8 +1235,12 @@
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="19"/>
       <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="E12" s="21"/>
       <c r="F12" s="22"/>
       <c r="G12" s="22"/>
@@ -1214,11 +1256,15 @@
       <c r="Q12" s="10"/>
       <c r="R12" s="10"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="13"/>
       <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
+      <c r="C13" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="E13" s="17"/>
       <c r="F13" s="16"/>
       <c r="G13" s="8"/>
@@ -1237,8 +1283,12 @@
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="19"/>
       <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="E14" s="21"/>
       <c r="F14" s="22"/>
       <c r="G14" s="22"/>
@@ -1257,8 +1307,12 @@
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="18"/>
       <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
+      <c r="C15" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>43</v>
+      </c>
       <c r="E15" s="14"/>
       <c r="F15" s="16"/>
       <c r="G15" s="8"/>
@@ -1277,8 +1331,12 @@
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="19"/>
       <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>44</v>
+      </c>
       <c r="E16" s="21"/>
       <c r="F16" s="22"/>
       <c r="G16" s="22"/>
@@ -1297,8 +1355,12 @@
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="18"/>
       <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
+      <c r="C17" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>45</v>
+      </c>
       <c r="E17" s="14"/>
       <c r="F17" s="16"/>
       <c r="G17" s="8"/>
@@ -1317,8 +1379,12 @@
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="19"/>
       <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
+      <c r="C18" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>46</v>
+      </c>
       <c r="E18" s="21"/>
       <c r="F18" s="22"/>
       <c r="G18" s="22"/>
@@ -1337,8 +1403,12 @@
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="18"/>
       <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
+      <c r="C19" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>47</v>
+      </c>
       <c r="E19" s="14"/>
       <c r="F19" s="16"/>
       <c r="G19" s="8"/>

--- a/M2.xlsx
+++ b/M2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\own_prog\github\kaudet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9434DB-91DA-425F-80A8-3FCDEFA6716A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FFB399-4DAB-434F-9936-5AE2AE3D3E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="0" windowWidth="19452" windowHeight="13776" tabRatio="880" activeTab="1" xr2:uid="{CFC6D258-5D3C-46F8-BFEC-F3C271445404}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="20616" windowHeight="9960" tabRatio="880" activeTab="1" xr2:uid="{CFC6D258-5D3C-46F8-BFEC-F3C271445404}"/>
   </bookViews>
   <sheets>
     <sheet name="M2 2025-2027" sheetId="10" r:id="rId1"/>
@@ -787,8 +787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35338555-4C3B-4F48-AD20-7BBDECE7FD0C}">
   <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C6" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -932,12 +932,12 @@
         <v>4</v>
       </c>
       <c r="O3" s="8">
-        <f>SUM(G2:G29)*3+SUM(H2:H29)*2+SUM(I2:I29)</f>
+        <f>SUM(G2:G25)*3+SUM(H2:H25)*2+SUM(I2:I25)</f>
         <v>9</v>
       </c>
       <c r="P3" s="8"/>
       <c r="Q3" s="8">
-        <f>SUM(J2:J29)*3+SUM(I2:I29)*2+SUM(H2:H29)</f>
+        <f>SUM(J2:J25)*3+SUM(I2:I25)*2+SUM(H2:H25)</f>
         <v>15</v>
       </c>
       <c r="R3" s="8">

--- a/M2.xlsx
+++ b/M2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\own_prog\github\kaudet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FFB399-4DAB-434F-9936-5AE2AE3D3E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F59F2D-AE38-4ECB-812A-4381CA0C437B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="20616" windowHeight="9960" tabRatio="880" activeTab="1" xr2:uid="{CFC6D258-5D3C-46F8-BFEC-F3C271445404}"/>
+    <workbookView xWindow="84" yWindow="840" windowWidth="22452" windowHeight="11628" tabRatio="880" activeTab="1" xr2:uid="{CFC6D258-5D3C-46F8-BFEC-F3C271445404}"/>
   </bookViews>
   <sheets>
     <sheet name="M2 2025-2027" sheetId="10" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="49">
   <si>
     <t>päivä</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t>TamRy</t>
+  </si>
+  <si>
+    <t>25-23,25-23,13-25,25-23</t>
   </si>
 </sst>
 </file>
@@ -692,11 +695,11 @@
       </c>
       <c r="C2" s="10">
         <f>'M2 2025-2026'!R2</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="10">
         <f>'M2 2025-2026'!O2</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10">
@@ -705,7 +708,7 @@
       </c>
       <c r="G2" s="10">
         <f>'M2 2025-2026'!O3</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H2" s="10">
         <f>'M2 2025-2026'!Q3</f>
@@ -713,11 +716,11 @@
       </c>
       <c r="I2" s="10">
         <f>'M2 2025-2026'!O4</f>
-        <v>662</v>
+        <v>750</v>
       </c>
       <c r="J2" s="10">
         <f>'M2 2025-2026'!Q4</f>
-        <v>705</v>
+        <v>799</v>
       </c>
       <c r="K2" s="10"/>
     </row>
@@ -741,11 +744,11 @@
       </c>
       <c r="C4" s="11">
         <f t="shared" ref="C4:J4" si="0">SUM(C2:C3)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E4" s="11">
         <f t="shared" si="0"/>
@@ -757,7 +760,7 @@
       </c>
       <c r="G4" s="12">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H4" s="12">
         <f t="shared" si="0"/>
@@ -765,11 +768,11 @@
       </c>
       <c r="I4" s="12">
         <f t="shared" si="0"/>
-        <v>662</v>
+        <v>750</v>
       </c>
       <c r="J4" s="12">
         <f t="shared" si="0"/>
-        <v>705</v>
+        <v>799</v>
       </c>
       <c r="K4" s="10"/>
       <c r="M4">
@@ -787,8 +790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35338555-4C3B-4F48-AD20-7BBDECE7FD0C}">
   <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -884,7 +887,7 @@
       </c>
       <c r="O2" s="10">
         <f>SUM(G2:G25)+SUM(H2:H25)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="P2" s="10"/>
       <c r="Q2" s="10">
@@ -893,7 +896,7 @@
       </c>
       <c r="R2" s="10">
         <f>SUM(O2:Q2)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
@@ -933,7 +936,7 @@
       </c>
       <c r="O3" s="8">
         <f>SUM(G2:G25)*3+SUM(H2:H25)*2+SUM(I2:I25)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="P3" s="8"/>
       <c r="Q3" s="8">
@@ -942,7 +945,7 @@
       </c>
       <c r="R3" s="8">
         <f>SUM(O3:Q3)</f>
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
@@ -982,16 +985,16 @@
       </c>
       <c r="O4" s="10">
         <f>SUM(K2:K30)</f>
-        <v>662</v>
+        <v>750</v>
       </c>
       <c r="P4" s="10"/>
       <c r="Q4" s="10">
         <f>SUM(L2:L30)</f>
-        <v>705</v>
+        <v>799</v>
       </c>
       <c r="R4" s="10">
         <f>SUM(O4:Q4)</f>
-        <v>1367</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
@@ -1184,7 +1187,7 @@
       <c r="Q9" s="8"/>
       <c r="R9" s="8"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="19"/>
       <c r="B10" s="20"/>
       <c r="C10" s="20" t="s">
@@ -1193,14 +1196,24 @@
       <c r="D10" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
+      <c r="E10" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="22">
+        <v>1</v>
+      </c>
       <c r="H10" s="10"/>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
+      <c r="K10" s="10">
+        <v>88</v>
+      </c>
+      <c r="L10" s="10">
+        <v>94</v>
+      </c>
       <c r="M10" s="10"/>
       <c r="N10" s="10"/>
       <c r="O10" s="10"/>
@@ -1256,7 +1269,7 @@
       <c r="Q12" s="10"/>
       <c r="R12" s="10"/>
     </row>
-    <row r="13" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="13"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14" t="s">

--- a/M2.xlsx
+++ b/M2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\own_prog\github\kaudet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F59F2D-AE38-4ECB-812A-4381CA0C437B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6E0829-1CCA-4630-8A3E-A27772A203D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="84" yWindow="840" windowWidth="22452" windowHeight="11628" tabRatio="880" activeTab="1" xr2:uid="{CFC6D258-5D3C-46F8-BFEC-F3C271445404}"/>
+    <workbookView xWindow="324" yWindow="384" windowWidth="22716" windowHeight="12828" tabRatio="880" activeTab="1" xr2:uid="{CFC6D258-5D3C-46F8-BFEC-F3C271445404}"/>
   </bookViews>
   <sheets>
     <sheet name="M2 2025-2027" sheetId="10" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="50">
   <si>
     <t>päivä</t>
   </si>
@@ -184,6 +184,9 @@
   </si>
   <si>
     <t>25-23,25-23,13-25,25-23</t>
+  </si>
+  <si>
+    <t>25-22,21-25,25-16,15-25,10-15</t>
   </si>
 </sst>
 </file>
@@ -695,7 +698,7 @@
       </c>
       <c r="C2" s="10">
         <f>'M2 2025-2026'!R2</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="10">
         <f>'M2 2025-2026'!O2</f>
@@ -704,23 +707,23 @@
       <c r="E2" s="10"/>
       <c r="F2" s="10">
         <f>'M2 2025-2026'!Q2</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G2" s="10">
         <f>'M2 2025-2026'!O3</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" s="10">
         <f>'M2 2025-2026'!Q3</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I2" s="10">
         <f>'M2 2025-2026'!O4</f>
-        <v>750</v>
+        <v>846</v>
       </c>
       <c r="J2" s="10">
         <f>'M2 2025-2026'!Q4</f>
-        <v>799</v>
+        <v>902</v>
       </c>
       <c r="K2" s="10"/>
     </row>
@@ -744,7 +747,7 @@
       </c>
       <c r="C4" s="11">
         <f t="shared" ref="C4:J4" si="0">SUM(C2:C3)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" s="11">
         <f t="shared" si="0"/>
@@ -756,28 +759,28 @@
       </c>
       <c r="F4" s="11">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G4" s="12">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H4" s="12">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I4" s="12">
         <f t="shared" si="0"/>
-        <v>750</v>
+        <v>846</v>
       </c>
       <c r="J4" s="12">
         <f t="shared" si="0"/>
-        <v>799</v>
+        <v>902</v>
       </c>
       <c r="K4" s="10"/>
       <c r="M4">
         <f>'M2 2025-2026'!Q2</f>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -790,8 +793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35338555-4C3B-4F48-AD20-7BBDECE7FD0C}">
   <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C5" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -892,11 +895,11 @@
       <c r="P2" s="10"/>
       <c r="Q2" s="10">
         <f>SUM(J2:J25)+SUM(I2:I25)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R2" s="10">
         <f>SUM(O2:Q2)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
@@ -936,16 +939,16 @@
       </c>
       <c r="O3" s="8">
         <f>SUM(G2:G25)*3+SUM(H2:H25)*2+SUM(I2:I25)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P3" s="8"/>
       <c r="Q3" s="8">
         <f>SUM(J2:J25)*3+SUM(I2:I25)*2+SUM(H2:H25)</f>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="R3" s="8">
         <f>SUM(O3:Q3)</f>
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
@@ -985,16 +988,16 @@
       </c>
       <c r="O4" s="10">
         <f>SUM(K2:K30)</f>
-        <v>750</v>
+        <v>846</v>
       </c>
       <c r="P4" s="10"/>
       <c r="Q4" s="10">
         <f>SUM(L2:L30)</f>
-        <v>799</v>
+        <v>902</v>
       </c>
       <c r="R4" s="10">
         <f>SUM(O4:Q4)</f>
-        <v>1549</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
@@ -1221,7 +1224,7 @@
       <c r="Q10" s="10"/>
       <c r="R10" s="10"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="13"/>
       <c r="B11" s="14"/>
       <c r="C11" s="14" t="s">
@@ -1230,14 +1233,24 @@
       <c r="D11" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="16"/>
+      <c r="E11" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>49</v>
+      </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
+      <c r="I11" s="8">
+        <v>1</v>
+      </c>
       <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
+      <c r="K11" s="8">
+        <v>96</v>
+      </c>
+      <c r="L11" s="8">
+        <v>103</v>
+      </c>
       <c r="M11" s="8"/>
       <c r="N11" s="8"/>
       <c r="O11" s="8"/>

--- a/M2.xlsx
+++ b/M2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\own_prog\github\kaudet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6E0829-1CCA-4630-8A3E-A27772A203D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90444E9C-4249-47E8-9EB0-729BB10D851B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="324" yWindow="384" windowWidth="22716" windowHeight="12828" tabRatio="880" activeTab="1" xr2:uid="{CFC6D258-5D3C-46F8-BFEC-F3C271445404}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="880" activeTab="1" xr2:uid="{CFC6D258-5D3C-46F8-BFEC-F3C271445404}"/>
   </bookViews>
   <sheets>
     <sheet name="M2 2025-2027" sheetId="10" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="51">
   <si>
     <t>päivä</t>
   </si>
@@ -187,6 +187,9 @@
   </si>
   <si>
     <t>25-22,21-25,25-16,15-25,10-15</t>
+  </si>
+  <si>
+    <t>25-20,11-25,25-20,22-25,11-15</t>
   </si>
 </sst>
 </file>
@@ -698,7 +701,7 @@
       </c>
       <c r="C2" s="10">
         <f>'M2 2025-2026'!R2</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="10">
         <f>'M2 2025-2026'!O2</f>
@@ -707,23 +710,23 @@
       <c r="E2" s="10"/>
       <c r="F2" s="10">
         <f>'M2 2025-2026'!Q2</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G2" s="10">
         <f>'M2 2025-2026'!O3</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" s="10">
         <f>'M2 2025-2026'!Q3</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I2" s="10">
         <f>'M2 2025-2026'!O4</f>
-        <v>846</v>
+        <v>940</v>
       </c>
       <c r="J2" s="10">
         <f>'M2 2025-2026'!Q4</f>
-        <v>902</v>
+        <v>1007</v>
       </c>
       <c r="K2" s="10"/>
     </row>
@@ -747,7 +750,7 @@
       </c>
       <c r="C4" s="11">
         <f t="shared" ref="C4:J4" si="0">SUM(C2:C3)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="11">
         <f t="shared" si="0"/>
@@ -759,28 +762,28 @@
       </c>
       <c r="F4" s="11">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G4" s="12">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" s="12">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I4" s="12">
         <f t="shared" si="0"/>
-        <v>846</v>
+        <v>940</v>
       </c>
       <c r="J4" s="12">
         <f t="shared" si="0"/>
-        <v>902</v>
+        <v>1007</v>
       </c>
       <c r="K4" s="10"/>
       <c r="M4">
         <f>'M2 2025-2026'!Q2</f>
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -794,7 +797,7 @@
   <dimension ref="A1:S29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -895,11 +898,11 @@
       <c r="P2" s="10"/>
       <c r="Q2" s="10">
         <f>SUM(J2:J25)+SUM(I2:I25)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R2" s="10">
         <f>SUM(O2:Q2)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
@@ -939,16 +942,16 @@
       </c>
       <c r="O3" s="8">
         <f>SUM(G2:G25)*3+SUM(H2:H25)*2+SUM(I2:I25)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P3" s="8"/>
       <c r="Q3" s="8">
         <f>SUM(J2:J25)*3+SUM(I2:I25)*2+SUM(H2:H25)</f>
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="R3" s="8">
         <f>SUM(O3:Q3)</f>
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
@@ -988,16 +991,16 @@
       </c>
       <c r="O4" s="10">
         <f>SUM(K2:K30)</f>
-        <v>846</v>
+        <v>940</v>
       </c>
       <c r="P4" s="10"/>
       <c r="Q4" s="10">
         <f>SUM(L2:L30)</f>
-        <v>902</v>
+        <v>1007</v>
       </c>
       <c r="R4" s="10">
         <f>SUM(O4:Q4)</f>
-        <v>1748</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
@@ -1258,7 +1261,7 @@
       <c r="Q11" s="8"/>
       <c r="R11" s="8"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="19"/>
       <c r="B12" s="20"/>
       <c r="C12" s="20" t="s">
@@ -1267,14 +1270,24 @@
       <c r="D12" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="22"/>
+      <c r="E12" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>50</v>
+      </c>
       <c r="G12" s="22"/>
       <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
+      <c r="I12" s="10">
+        <v>1</v>
+      </c>
       <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
+      <c r="K12" s="10">
+        <v>94</v>
+      </c>
+      <c r="L12" s="10">
+        <v>105</v>
+      </c>
       <c r="M12" s="10"/>
       <c r="N12" s="10"/>
       <c r="O12" s="10"/>

--- a/M2.xlsx
+++ b/M2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\own_prog\github\kaudet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90444E9C-4249-47E8-9EB0-729BB10D851B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC81BBD-26DE-4DD4-9CFB-499994364955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="880" activeTab="1" xr2:uid="{CFC6D258-5D3C-46F8-BFEC-F3C271445404}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="52">
   <si>
     <t>päivä</t>
   </si>
@@ -190,6 +190,9 @@
   </si>
   <si>
     <t>25-20,11-25,25-20,22-25,11-15</t>
+  </si>
+  <si>
+    <t>16-25,20-25,27-25,16-25</t>
   </si>
 </sst>
 </file>
@@ -701,7 +704,7 @@
       </c>
       <c r="C2" s="10">
         <f>'M2 2025-2026'!R2</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="10">
         <f>'M2 2025-2026'!O2</f>
@@ -710,7 +713,7 @@
       <c r="E2" s="10"/>
       <c r="F2" s="10">
         <f>'M2 2025-2026'!Q2</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G2" s="10">
         <f>'M2 2025-2026'!O3</f>
@@ -718,15 +721,15 @@
       </c>
       <c r="H2" s="10">
         <f>'M2 2025-2026'!Q3</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I2" s="10">
         <f>'M2 2025-2026'!O4</f>
-        <v>940</v>
+        <v>1019</v>
       </c>
       <c r="J2" s="10">
         <f>'M2 2025-2026'!Q4</f>
-        <v>1007</v>
+        <v>1107</v>
       </c>
       <c r="K2" s="10"/>
     </row>
@@ -750,7 +753,7 @@
       </c>
       <c r="C4" s="11">
         <f t="shared" ref="C4:J4" si="0">SUM(C2:C3)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="11">
         <f t="shared" si="0"/>
@@ -762,7 +765,7 @@
       </c>
       <c r="F4" s="11">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G4" s="12">
         <f t="shared" si="0"/>
@@ -770,20 +773,20 @@
       </c>
       <c r="H4" s="12">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I4" s="12">
         <f t="shared" si="0"/>
-        <v>940</v>
+        <v>1019</v>
       </c>
       <c r="J4" s="12">
         <f t="shared" si="0"/>
-        <v>1007</v>
+        <v>1107</v>
       </c>
       <c r="K4" s="10"/>
       <c r="M4">
         <f>'M2 2025-2026'!Q2</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -796,8 +799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35338555-4C3B-4F48-AD20-7BBDECE7FD0C}">
   <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" topLeftCell="C8" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -898,11 +901,11 @@
       <c r="P2" s="10"/>
       <c r="Q2" s="10">
         <f>SUM(J2:J25)+SUM(I2:I25)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R2" s="10">
         <f>SUM(O2:Q2)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
@@ -947,11 +950,11 @@
       <c r="P3" s="8"/>
       <c r="Q3" s="8">
         <f>SUM(J2:J25)*3+SUM(I2:I25)*2+SUM(H2:H25)</f>
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="R3" s="8">
         <f>SUM(O3:Q3)</f>
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
@@ -991,16 +994,16 @@
       </c>
       <c r="O4" s="10">
         <f>SUM(K2:K30)</f>
-        <v>940</v>
+        <v>1019</v>
       </c>
       <c r="P4" s="10"/>
       <c r="Q4" s="10">
         <f>SUM(L2:L30)</f>
-        <v>1007</v>
+        <v>1107</v>
       </c>
       <c r="R4" s="10">
         <f>SUM(O4:Q4)</f>
-        <v>1947</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
@@ -1295,7 +1298,7 @@
       <c r="Q12" s="10"/>
       <c r="R12" s="10"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A13" s="13"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14" t="s">
@@ -1304,14 +1307,24 @@
       <c r="D13" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="16"/>
+      <c r="E13" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>51</v>
+      </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="8"/>
-      <c r="L13" s="8"/>
+      <c r="J13" s="8">
+        <v>1</v>
+      </c>
+      <c r="K13" s="8">
+        <v>79</v>
+      </c>
+      <c r="L13" s="8">
+        <v>100</v>
+      </c>
       <c r="M13" s="8"/>
       <c r="N13" s="8"/>
       <c r="O13" s="8"/>

--- a/M2.xlsx
+++ b/M2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\own_prog\github\kaudet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC81BBD-26DE-4DD4-9CFB-499994364955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC3EF0F-C173-4146-855C-5CFD26B7118C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" tabRatio="880" activeTab="1" xr2:uid="{CFC6D258-5D3C-46F8-BFEC-F3C271445404}"/>
+    <workbookView xWindow="768" yWindow="156" windowWidth="21156" windowHeight="12828" tabRatio="880" activeTab="1" xr2:uid="{CFC6D258-5D3C-46F8-BFEC-F3C271445404}"/>
   </bookViews>
   <sheets>
     <sheet name="M2 2025-2027" sheetId="10" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="53">
   <si>
     <t>päivä</t>
   </si>
@@ -193,6 +193,9 @@
   </si>
   <si>
     <t>16-25,20-25,27-25,16-25</t>
+  </si>
+  <si>
+    <t>25-17,21-25,15-25,24-26</t>
   </si>
 </sst>
 </file>
@@ -704,7 +707,7 @@
       </c>
       <c r="C2" s="10">
         <f>'M2 2025-2026'!R2</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" s="10">
         <f>'M2 2025-2026'!O2</f>
@@ -713,7 +716,7 @@
       <c r="E2" s="10"/>
       <c r="F2" s="10">
         <f>'M2 2025-2026'!Q2</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G2" s="10">
         <f>'M2 2025-2026'!O3</f>
@@ -721,15 +724,15 @@
       </c>
       <c r="H2" s="10">
         <f>'M2 2025-2026'!Q3</f>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I2" s="10">
         <f>'M2 2025-2026'!O4</f>
-        <v>1019</v>
+        <v>1104</v>
       </c>
       <c r="J2" s="10">
         <f>'M2 2025-2026'!Q4</f>
-        <v>1107</v>
+        <v>1199</v>
       </c>
       <c r="K2" s="10"/>
     </row>
@@ -753,7 +756,7 @@
       </c>
       <c r="C4" s="11">
         <f t="shared" ref="C4:J4" si="0">SUM(C2:C3)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="11">
         <f t="shared" si="0"/>
@@ -765,7 +768,7 @@
       </c>
       <c r="F4" s="11">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G4" s="12">
         <f t="shared" si="0"/>
@@ -773,20 +776,20 @@
       </c>
       <c r="H4" s="12">
         <f t="shared" si="0"/>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I4" s="12">
         <f t="shared" si="0"/>
-        <v>1019</v>
+        <v>1104</v>
       </c>
       <c r="J4" s="12">
         <f t="shared" si="0"/>
-        <v>1107</v>
+        <v>1199</v>
       </c>
       <c r="K4" s="10"/>
       <c r="M4">
         <f>'M2 2025-2026'!Q2</f>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -799,8 +802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35338555-4C3B-4F48-AD20-7BBDECE7FD0C}">
   <dimension ref="A1:S29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C8" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" topLeftCell="C9" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -901,11 +904,11 @@
       <c r="P2" s="10"/>
       <c r="Q2" s="10">
         <f>SUM(J2:J25)+SUM(I2:I25)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R2" s="10">
         <f>SUM(O2:Q2)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
@@ -950,11 +953,11 @@
       <c r="P3" s="8"/>
       <c r="Q3" s="8">
         <f>SUM(J2:J25)*3+SUM(I2:I25)*2+SUM(H2:H25)</f>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R3" s="8">
         <f>SUM(O3:Q3)</f>
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
@@ -994,16 +997,16 @@
       </c>
       <c r="O4" s="10">
         <f>SUM(K2:K30)</f>
-        <v>1019</v>
+        <v>1104</v>
       </c>
       <c r="P4" s="10"/>
       <c r="Q4" s="10">
         <f>SUM(L2:L30)</f>
-        <v>1107</v>
+        <v>1199</v>
       </c>
       <c r="R4" s="10">
         <f>SUM(O4:Q4)</f>
-        <v>2126</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
@@ -1332,7 +1335,7 @@
       <c r="Q13" s="8"/>
       <c r="R13" s="8"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="19"/>
       <c r="B14" s="20"/>
       <c r="C14" s="20" t="s">
@@ -1341,14 +1344,24 @@
       <c r="D14" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="22"/>
+      <c r="E14" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>52</v>
+      </c>
       <c r="G14" s="22"/>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
+      <c r="J14" s="10">
+        <v>1</v>
+      </c>
+      <c r="K14" s="10">
+        <v>85</v>
+      </c>
+      <c r="L14" s="10">
+        <v>92</v>
+      </c>
       <c r="M14" s="10"/>
       <c r="N14" s="10"/>
       <c r="O14" s="10"/>

--- a/M2.xlsx
+++ b/M2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\own_prog\github\kaudet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAC3EF0F-C173-4146-855C-5CFD26B7118C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F6003D-9A6D-4058-B9DE-6BDB82758181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="768" yWindow="156" windowWidth="21156" windowHeight="12828" tabRatio="880" activeTab="1" xr2:uid="{CFC6D258-5D3C-46F8-BFEC-F3C271445404}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="54">
   <si>
     <t>päivä</t>
   </si>
@@ -196,6 +196,9 @@
   </si>
   <si>
     <t>25-17,21-25,15-25,24-26</t>
+  </si>
+  <si>
+    <t>17-25,17-25,16-25</t>
   </si>
 </sst>
 </file>
@@ -707,7 +710,7 @@
       </c>
       <c r="C2" s="10">
         <f>'M2 2025-2026'!R2</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" s="10">
         <f>'M2 2025-2026'!O2</f>
@@ -716,7 +719,7 @@
       <c r="E2" s="10"/>
       <c r="F2" s="10">
         <f>'M2 2025-2026'!Q2</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2" s="10">
         <f>'M2 2025-2026'!O3</f>
@@ -724,15 +727,15 @@
       </c>
       <c r="H2" s="10">
         <f>'M2 2025-2026'!Q3</f>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I2" s="10">
         <f>'M2 2025-2026'!O4</f>
-        <v>1104</v>
+        <v>1154</v>
       </c>
       <c r="J2" s="10">
         <f>'M2 2025-2026'!Q4</f>
-        <v>1199</v>
+        <v>1274</v>
       </c>
       <c r="K2" s="10"/>
     </row>
@@ -756,7 +759,7 @@
       </c>
       <c r="C4" s="11">
         <f t="shared" ref="C4:J4" si="0">SUM(C2:C3)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="11">
         <f t="shared" si="0"/>
@@ -768,7 +771,7 @@
       </c>
       <c r="F4" s="11">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G4" s="12">
         <f t="shared" si="0"/>
@@ -776,20 +779,20 @@
       </c>
       <c r="H4" s="12">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I4" s="12">
         <f t="shared" si="0"/>
-        <v>1104</v>
+        <v>1154</v>
       </c>
       <c r="J4" s="12">
         <f t="shared" si="0"/>
-        <v>1199</v>
+        <v>1274</v>
       </c>
       <c r="K4" s="10"/>
       <c r="M4">
         <f>'M2 2025-2026'!Q2</f>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -803,7 +806,7 @@
   <dimension ref="A1:S29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C9" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -904,11 +907,11 @@
       <c r="P2" s="10"/>
       <c r="Q2" s="10">
         <f>SUM(J2:J25)+SUM(I2:I25)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R2" s="10">
         <f>SUM(O2:Q2)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
@@ -953,11 +956,11 @@
       <c r="P3" s="8"/>
       <c r="Q3" s="8">
         <f>SUM(J2:J25)*3+SUM(I2:I25)*2+SUM(H2:H25)</f>
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="R3" s="8">
         <f>SUM(O3:Q3)</f>
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
@@ -997,16 +1000,16 @@
       </c>
       <c r="O4" s="10">
         <f>SUM(K2:K30)</f>
-        <v>1104</v>
+        <v>1154</v>
       </c>
       <c r="P4" s="10"/>
       <c r="Q4" s="10">
         <f>SUM(L2:L30)</f>
-        <v>1199</v>
+        <v>1274</v>
       </c>
       <c r="R4" s="10">
         <f>SUM(O4:Q4)</f>
-        <v>2303</v>
+        <v>2428</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
@@ -1369,7 +1372,7 @@
       <c r="Q14" s="10"/>
       <c r="R14" s="10"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="18"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14" t="s">
@@ -1378,14 +1381,24 @@
       <c r="D15" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="16"/>
+      <c r="E15" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>53</v>
+      </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
+      <c r="J15" s="8">
+        <v>1</v>
+      </c>
+      <c r="K15" s="8">
+        <v>50</v>
+      </c>
+      <c r="L15" s="8">
+        <v>75</v>
+      </c>
       <c r="M15" s="8"/>
       <c r="N15" s="8"/>
       <c r="O15" s="8"/>
